--- a/PRODUCTION/DATA/dataDescription.xlsx
+++ b/PRODUCTION/DATA/dataDescription.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
   <si>
     <t xml:space="preserve">Dataset name</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original path</t>
   </si>
   <si>
     <t xml:space="preserve">Data type</t>
@@ -67,10 +73,25 @@
     <t xml:space="preserve">Nombre alternativo: 20240812_vortex_trainning_float_formmated</t>
   </si>
   <si>
+    <t xml:space="preserve">/home/dsg/VORTEX_FINAL/PRODUCTION/DATA/raw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/dsg/vortex/Model_4Provenance/DATA</t>
+  </si>
+  <si>
     <t xml:space="preserve">float/str</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">final_input_data.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FinalTrainingData.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/dsg/VORTEX_FINAL/PRODUCTION/DATA/processed</t>
   </si>
   <si>
     <t xml:space="preserve">Recommendations</t>
@@ -835,25 +856,25 @@
     <tabColor rgb="FF57BB8A"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.59375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="13.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="20.25"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="9" style="1" width="12.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="13.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.25"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="12.6"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -872,70 +893,91 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="10" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="C2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="C3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -943,16 +985,18 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -960,16 +1004,18 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -977,16 +1023,18 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -994,16 +1042,18 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -1011,16 +1061,18 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -1028,16 +1080,18 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -1045,16 +1099,18 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -1062,16 +1118,18 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -1079,16 +1137,18 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -1096,16 +1156,18 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -1113,16 +1175,18 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -1130,30 +1194,32 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:I15">
+  <conditionalFormatting sqref="F2:K15">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(TRIM(D2))&gt;0</formula>
+      <formula>LEN(TRIM(F2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E1:E1015" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="G1:G1015" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F2:G15" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H2:I15" type="list">
       <formula1>Validators!$C$2:$C$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H2:I15" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="J2:K15" type="list">
       <formula1>Validators!$D$2:$D$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2:D15" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F2:F15" type="list">
       <formula1>Validators!$A$2:$A$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1188,38 +1254,38 @@
   <sheetData>
     <row r="1" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B1" s="15"/>
     </row>
     <row r="2" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1250,7 +1316,7 @@
     </row>
     <row r="9" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="17"/>
@@ -1282,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -1313,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -1341,10 +1407,10 @@
     </row>
     <row r="12" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -1375,7 +1441,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -1403,10 +1469,10 @@
     </row>
     <row r="14" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -1434,10 +1500,10 @@
     </row>
     <row r="15" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -1465,10 +1531,10 @@
     </row>
     <row r="16" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -1496,10 +1562,10 @@
     </row>
     <row r="17" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -1527,10 +1593,10 @@
     </row>
     <row r="18" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -1557,10 +1623,10 @@
     </row>
     <row r="19" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -1588,10 +1654,10 @@
     </row>
     <row r="20" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -1619,10 +1685,10 @@
     </row>
     <row r="21" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="25" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -28184,7 +28250,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.59375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="31" width="28.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="31" width="15.09"/>
@@ -28193,59 +28259,59 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="32" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="34" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="34" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
@@ -28253,7 +28319,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="34" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
@@ -28261,7 +28327,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="34" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
@@ -28269,7 +28335,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="34" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
@@ -28322,47 +28388,47 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="36" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B1" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>45</v>
-      </c>
       <c r="E1" s="36" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="81" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="37" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D2" s="39" t="n">
         <v>45216</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="42" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
